--- a/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,42 +46,45 @@
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>war</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>war</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -94,16 +97,22 @@
     <t>happy</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>nice</t>
@@ -112,151 +121,136 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>san</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
+    <t>toilet</t>
   </si>
   <si>
     <t>food</t>
@@ -623,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -763,16 +757,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9782608695652174</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -792,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7307692307692307</v>
+        <v>0.76</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -810,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9661016949152542</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -842,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6896551724137931</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -860,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6">
         <v>0.9545454545454546</v>
@@ -892,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.684931506849315</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -910,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -934,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -942,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5641025641025641</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -960,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -984,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -992,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,16 +1007,16 @@
         <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8723404255319149</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="M9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1042,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3758389261744967</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1060,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.859375</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L10">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1084,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1092,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3527131782945737</v>
+        <v>0.374031007751938</v>
       </c>
       <c r="C11">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D11">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.8571428571428571</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L11">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1134,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1142,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3466666666666667</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.8414634146341463</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1184,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1192,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3389830508474576</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1210,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.8148148148148148</v>
+        <v>0.8125</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1234,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1242,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3227513227513227</v>
+        <v>0.3624161073825503</v>
       </c>
       <c r="C14">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1260,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.8103448275862069</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1284,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1292,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2987012987012987</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1310,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.8055555555555556</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1334,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1342,13 +1336,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2333333333333333</v>
+        <v>0.2875</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1360,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16">
         <v>0.7916666666666666</v>
@@ -1392,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1984126984126984</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1410,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>202</v>
+        <v>56</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7887323943661971</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L17">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1434,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1442,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.128686327077748</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1460,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.7583333333333333</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L18">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="M18">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1484,21 +1478,45 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.1155913978494624</v>
+      </c>
+      <c r="C19">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>0.02</v>
+      </c>
+      <c r="F19">
+        <v>0.98</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>329</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1510,21 +1528,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.7450980392156863</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1536,21 +1554,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.725</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L21">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1562,21 +1580,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.7142857142857143</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1588,21 +1606,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.7111111111111111</v>
+        <v>0.68125</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1614,21 +1632,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.6981132075471698</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L24">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1640,21 +1658,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.6944444444444444</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1666,21 +1684,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.6808510638297872</v>
+        <v>0.6449086161879896</v>
       </c>
       <c r="L26">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="M26">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1692,21 +1710,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.625</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1718,21 +1736,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.618798955613577</v>
+        <v>0.625</v>
       </c>
       <c r="L28">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1744,21 +1762,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>146</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.6176470588235294</v>
+        <v>0.62</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1770,21 +1788,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30">
         <v>0.6</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1796,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.5757575757575758</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1827,16 +1845,16 @@
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.5730337078651685</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L32">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="M32">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1848,21 +1866,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.5647058823529412</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L33">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="M33">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1874,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>148</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1900,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.5581395348837209</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1926,21 +1944,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>0.5457627118644067</v>
+        <v>0.525</v>
       </c>
       <c r="L36">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1952,21 +1970,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>134</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>0.5068493150684932</v>
+        <v>0.502092050209205</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1978,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>36</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K38">
-        <v>0.5</v>
+        <v>0.46875</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2004,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K39">
-        <v>0.4923076923076923</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2030,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K40">
-        <v>0.4728033472803347</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L40">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2056,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>126</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>0.453125</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2082,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K42">
-        <v>0.4523809523809524</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2108,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K43">
-        <v>0.425531914893617</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2134,21 +2152,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K44">
-        <v>0.4230769230769231</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="L44">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2160,21 +2178,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K45">
-        <v>0.3442622950819672</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2186,21 +2204,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>40</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K46">
-        <v>0.3285714285714286</v>
+        <v>0.125</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2212,21 +2230,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>47</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K47">
-        <v>0.2777777777777778</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2238,47 +2256,47 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>52</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K48">
-        <v>0.1653543307086614</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="L48">
         <v>21</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>106</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K49">
-        <v>0.1302325581395349</v>
+        <v>0.0894854586129754</v>
       </c>
       <c r="L49">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="M49">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2290,21 +2308,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>187</v>
+        <v>814</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K50">
-        <v>0.1267942583732057</v>
+        <v>0.08546059933407325</v>
       </c>
       <c r="L50">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M50">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2316,73 +2334,73 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>365</v>
+        <v>824</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K51">
-        <v>0.125</v>
+        <v>0.04791344667697063</v>
       </c>
       <c r="L51">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>364</v>
+        <v>616</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K52">
-        <v>0.08734602463605823</v>
+        <v>0.04526748971193416</v>
       </c>
       <c r="L52">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="N52">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>815</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K53">
-        <v>0.07769145394006659</v>
+        <v>0.04498269896193772</v>
       </c>
       <c r="L53">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="M53">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2394,215 +2412,137 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K54">
-        <v>0.0736196319018405</v>
+        <v>0.03461178671655753</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="N54">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O54">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>302</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K55">
-        <v>0.05761316872427984</v>
+        <v>0.03356890459363958</v>
       </c>
       <c r="L55">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>458</v>
+        <v>547</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K56">
-        <v>0.04482225656877898</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M56">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N56">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="O56">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>618</v>
+        <v>943</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57">
+        <v>0.02227962544397804</v>
+      </c>
+      <c r="L57">
+        <v>69</v>
+      </c>
+      <c r="M57">
         <v>79</v>
       </c>
-      <c r="K57">
-        <v>0.04119850187265917</v>
-      </c>
-      <c r="L57">
-        <v>88</v>
-      </c>
-      <c r="M57">
-        <v>95</v>
-      </c>
       <c r="N57">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="O57">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2048</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K58">
-        <v>0.04036908881199539</v>
+        <v>0.01129588955130217</v>
       </c>
       <c r="L58">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M58">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K59">
-        <v>0.02789256198347108</v>
-      </c>
-      <c r="L59">
-        <v>27</v>
-      </c>
-      <c r="M59">
-        <v>27</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K60">
-        <v>0.02576489533011272</v>
-      </c>
-      <c r="L60">
-        <v>80</v>
-      </c>
-      <c r="M60">
-        <v>82</v>
-      </c>
-      <c r="N60">
-        <v>0.98</v>
-      </c>
-      <c r="O60">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K61">
-        <v>0.01191222570532915</v>
-      </c>
-      <c r="L61">
-        <v>38</v>
-      </c>
-      <c r="M61">
-        <v>49</v>
-      </c>
-      <c r="N61">
-        <v>0.78</v>
-      </c>
-      <c r="O61">
-        <v>0.22</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>3152</v>
+        <v>3151</v>
       </c>
     </row>
   </sheetData>
